--- a/Mifos Automation Excels/Client/2577-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-PERIODIC-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2577-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-PERIODIC-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -212,7 +212,7 @@
     <t>deleterepaymentschedule</t>
   </si>
   <si>
-    <t>2575-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-PERIODIC</t>
+    <t>2495-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-PERIODIC</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -766,10 +766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A7" sqref="A7:XFD15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -783,7 +783,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -803,7 +803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>5000</v>
       </c>
@@ -820,8 +820,9 @@
       <c r="F2" s="10">
         <v>909.09</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>222.74</v>
       </c>
@@ -841,7 +842,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>0</v>
       </c>
@@ -861,7 +862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>0</v>
       </c>
@@ -878,84 +879,6 @@
         <v>0</v>
       </c>
       <c r="F5" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>5000</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
-      <c r="E7" s="12">
-        <v>5000</v>
-      </c>
-      <c r="F7" s="13">
-        <v>1818.18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>223.35</v>
-      </c>
-      <c r="B8" s="10">
-        <v>0</v>
-      </c>
-      <c r="C8" s="10">
-        <v>0</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0</v>
-      </c>
-      <c r="E8" s="10">
-        <v>223.35</v>
-      </c>
-      <c r="F8" s="10">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>0</v>
-      </c>
-      <c r="B9" s="10">
-        <v>0</v>
-      </c>
-      <c r="C9" s="10">
-        <v>0</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
-      <c r="E9" s="10">
-        <v>0</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>0</v>
-      </c>
-      <c r="B10" s="10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
-      <c r="E10" s="10">
-        <v>0</v>
-      </c>
-      <c r="F10" s="10">
         <v>0</v>
       </c>
     </row>
@@ -969,7 +892,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,6 +991,7 @@
       <c r="M2" s="10"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
@@ -1108,6 +1032,9 @@
       <c r="N3" s="10">
         <v>0</v>
       </c>
+      <c r="O3" s="10">
+        <v>0</v>
+      </c>
       <c r="P3" s="13">
         <v>1009.09</v>
       </c>
@@ -1151,6 +1078,9 @@
       <c r="N4" s="10">
         <v>0</v>
       </c>
+      <c r="O4" s="10">
+        <v>0</v>
+      </c>
       <c r="P4" s="10">
         <v>959.09</v>
       </c>
@@ -1174,7 +1104,7 @@
         <v>2272.73</v>
       </c>
       <c r="H5" s="10">
-        <v>32.43</v>
+        <v>31.82</v>
       </c>
       <c r="I5" s="10">
         <v>0</v>
@@ -1183,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="10">
-        <v>941.52</v>
+        <v>940.91</v>
       </c>
       <c r="L5" s="10">
         <v>0</v>
@@ -1194,8 +1124,11 @@
       <c r="N5" s="10">
         <v>0</v>
       </c>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
       <c r="P5" s="10">
-        <v>941.52</v>
+        <v>940.91</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -1237,6 +1170,9 @@
       <c r="N6" s="10">
         <v>0</v>
       </c>
+      <c r="O6" s="10">
+        <v>0</v>
+      </c>
       <c r="P6" s="10">
         <v>931.82</v>
       </c>
@@ -1280,6 +1216,9 @@
       <c r="N7" s="10">
         <v>0</v>
       </c>
+      <c r="O7" s="10">
+        <v>0</v>
+      </c>
       <c r="P7" s="10">
         <v>922.73</v>
       </c>
@@ -1321,6 +1260,9 @@
         <v>0</v>
       </c>
       <c r="N8" s="10">
+        <v>0</v>
+      </c>
+      <c r="O8" s="10">
         <v>0</v>
       </c>
       <c r="P8" s="10">
@@ -1337,7 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/2577-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-PERIODIC-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2577-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-PERIODIC-Newcreateloan1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -212,7 +212,7 @@
     <t>deleterepaymentschedule</t>
   </si>
   <si>
-    <t>2495-RBI-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-PERIODIC</t>
+    <t>2575-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-PERIODIC</t>
   </si>
 </sst>
 </file>
@@ -652,7 +652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1279,7 +1279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J2"/>
     </sheetView>
   </sheetViews>

--- a/Mifos Automation Excels/Client/2577-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-PERIODIC-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2577-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-PERIODIC-Newcreateloan1.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -218,7 +223,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -359,6 +364,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -406,7 +414,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -439,9 +447,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -474,6 +499,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -652,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,10 +931,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,12 +952,13 @@
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -955,17 +998,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="10"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11">
@@ -992,8 +1036,9 @@
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
       <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="10"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>1</v>
       </c>
@@ -1029,17 +1074,18 @@
       <c r="M3" s="10">
         <v>0</v>
       </c>
-      <c r="N3" s="10">
-        <v>0</v>
-      </c>
+      <c r="N3" s="10"/>
       <c r="O3" s="10">
         <v>0</v>
       </c>
-      <c r="P3" s="13">
+      <c r="P3" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="13">
         <v>1009.09</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>2</v>
       </c>
@@ -1075,17 +1121,18 @@
       <c r="M4" s="10">
         <v>0</v>
       </c>
-      <c r="N4" s="10">
-        <v>0</v>
-      </c>
+      <c r="N4" s="10"/>
       <c r="O4" s="10">
         <v>0</v>
       </c>
       <c r="P4" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="10">
         <v>959.09</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>3</v>
       </c>
@@ -1121,17 +1168,18 @@
       <c r="M5" s="10">
         <v>0</v>
       </c>
-      <c r="N5" s="10">
-        <v>0</v>
-      </c>
+      <c r="N5" s="10"/>
       <c r="O5" s="10">
         <v>0</v>
       </c>
       <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
         <v>940.91</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>4</v>
       </c>
@@ -1167,17 +1215,18 @@
       <c r="M6" s="10">
         <v>0</v>
       </c>
-      <c r="N6" s="10">
-        <v>0</v>
-      </c>
+      <c r="N6" s="10"/>
       <c r="O6" s="10">
         <v>0</v>
       </c>
       <c r="P6" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="10">
         <v>931.82</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>5</v>
       </c>
@@ -1213,17 +1262,18 @@
       <c r="M7" s="10">
         <v>0</v>
       </c>
-      <c r="N7" s="10">
-        <v>0</v>
-      </c>
+      <c r="N7" s="10"/>
       <c r="O7" s="10">
         <v>0</v>
       </c>
       <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
         <v>922.73</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>6</v>
       </c>
@@ -1259,13 +1309,14 @@
       <c r="M8" s="10">
         <v>0</v>
       </c>
-      <c r="N8" s="10">
-        <v>0</v>
-      </c>
+      <c r="N8" s="10"/>
       <c r="O8" s="10">
         <v>0</v>
       </c>
       <c r="P8" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="10">
         <v>459.1</v>
       </c>
     </row>

--- a/Mifos Automation Excels/Client/2577-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-PERIODIC-Newcreateloan1.xlsx
+++ b/Mifos Automation Excels/Client/2577-MS-EPP-DB-SAR-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DELETE-VAR-INST-PERIODIC-Newcreateloan1.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -223,7 +218,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -414,7 +409,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,26 +442,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -499,23 +477,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -808,10 +769,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -825,7 +786,7 @@
     <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>17</v>
       </c>
@@ -845,7 +806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="12">
         <v>5000</v>
       </c>
@@ -862,9 +823,8 @@
       <c r="F2" s="10">
         <v>909.09</v>
       </c>
-      <c r="G2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>222.74</v>
       </c>
@@ -884,7 +844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>0</v>
       </c>
@@ -904,7 +864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>0</v>
       </c>
@@ -933,7 +893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
